--- a/8/5/2/1/1/Trimestral 2008 a 2021 - Trimestral.xlsx
+++ b/8/5/2/1/1/Trimestral 2008 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Serie</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM54"/>
+  <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6965,40 +6968,40 @@
         <v>91</v>
       </c>
       <c r="B54">
-        <v>78.90000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="C54">
-        <v>79.40000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="D54">
-        <v>85.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E54">
-        <v>76.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="F54">
-        <v>97.40000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G54">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H54">
-        <v>130.6</v>
+        <v>133.4</v>
       </c>
       <c r="I54">
-        <v>132.1</v>
+        <v>135.3</v>
       </c>
       <c r="J54">
-        <v>141.3</v>
+        <v>145.7</v>
       </c>
       <c r="K54">
-        <v>112.6</v>
+        <v>114.3</v>
       </c>
       <c r="L54">
-        <v>124.7</v>
+        <v>126.3</v>
       </c>
       <c r="M54">
-        <v>116.3</v>
+        <v>116.2</v>
       </c>
       <c r="N54">
         <v>131.9</v>
@@ -7007,22 +7010,22 @@
         <v>130.1</v>
       </c>
       <c r="P54">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="Q54">
-        <v>90.2</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="R54">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="S54">
-        <v>97.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="T54">
         <v>86.40000000000001</v>
       </c>
       <c r="U54">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="V54">
         <v>101.7</v>
@@ -7031,52 +7034,171 @@
         <v>101.9</v>
       </c>
       <c r="X54">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="Y54">
+        <v>103.1</v>
+      </c>
+      <c r="Z54">
+        <v>104.1</v>
+      </c>
+      <c r="AA54">
         <v>102.1</v>
-      </c>
-      <c r="Z54">
-        <v>102.6</v>
-      </c>
-      <c r="AA54">
-        <v>101.8</v>
       </c>
       <c r="AB54">
         <v>93.40000000000001</v>
       </c>
       <c r="AC54">
+        <v>83.5</v>
+      </c>
+      <c r="AD54">
         <v>83.3</v>
       </c>
-      <c r="AD54">
-        <v>83.2</v>
-      </c>
       <c r="AE54">
-        <v>83.40000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="AF54">
-        <v>82.3</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="AG54">
-        <v>99.90000000000001</v>
+        <v>101.3</v>
       </c>
       <c r="AH54">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AI54">
         <v>79.40000000000001</v>
       </c>
       <c r="AJ54">
-        <v>102.1</v>
+        <v>103.2</v>
       </c>
       <c r="AK54">
         <v>90</v>
       </c>
       <c r="AL54">
-        <v>78.59999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="AM54">
-        <v>107.2</v>
+        <v>109.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55">
+        <v>90</v>
+      </c>
+      <c r="C55">
+        <v>86.7</v>
+      </c>
+      <c r="D55">
+        <v>77.3</v>
+      </c>
+      <c r="E55">
+        <v>69.8</v>
+      </c>
+      <c r="F55">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="G55">
+        <v>106.1</v>
+      </c>
+      <c r="H55">
+        <v>137</v>
+      </c>
+      <c r="I55">
+        <v>138.1</v>
+      </c>
+      <c r="J55">
+        <v>144.4</v>
+      </c>
+      <c r="K55">
+        <v>125.5</v>
+      </c>
+      <c r="L55">
+        <v>134.4</v>
+      </c>
+      <c r="M55">
+        <v>127</v>
+      </c>
+      <c r="N55">
+        <v>158.6</v>
+      </c>
+      <c r="O55">
+        <v>126.5</v>
+      </c>
+      <c r="P55">
+        <v>110.8</v>
+      </c>
+      <c r="Q55">
+        <v>95.7</v>
+      </c>
+      <c r="R55">
+        <v>103.2</v>
+      </c>
+      <c r="S55">
+        <v>112.2</v>
+      </c>
+      <c r="T55">
+        <v>91.8</v>
+      </c>
+      <c r="U55">
+        <v>103.7</v>
+      </c>
+      <c r="V55">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="W55">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="X55">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>110.1</v>
+      </c>
+      <c r="Z55">
+        <v>111.1</v>
+      </c>
+      <c r="AA55">
+        <v>108.7</v>
+      </c>
+      <c r="AB55">
+        <v>105</v>
+      </c>
+      <c r="AC55">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="AD55">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="AE55">
+        <v>86</v>
+      </c>
+      <c r="AF55">
+        <v>85.7</v>
+      </c>
+      <c r="AG55">
+        <v>112.8</v>
+      </c>
+      <c r="AH55">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="AI55">
+        <v>78.7</v>
+      </c>
+      <c r="AJ55">
+        <v>107.1</v>
+      </c>
+      <c r="AK55">
+        <v>95.2</v>
+      </c>
+      <c r="AL55">
+        <v>75.3</v>
+      </c>
+      <c r="AM55">
+        <v>117.4</v>
       </c>
     </row>
   </sheetData>
